--- a/Yesteria/ad/download_data/商品推广广告商品报告.xlsx
+++ b/Yesteria/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,12 +84,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="13.26953125" customWidth="true"/>
+    <col min="2" max="2" width="13.26953125" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
-    <col min="4" max="4" width="13.8515625" customWidth="true"/>
-    <col min="5" max="5" width="11.37890625" customWidth="true"/>
-    <col min="6" max="6" width="20.921875" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.828125" customWidth="true"/>
+    <col min="6" max="6" width="21.68359375" customWidth="true"/>
     <col min="7" max="7" width="13.546875" customWidth="true"/>
     <col min="8" max="8" width="7.72265625" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.578125" customWidth="true"/>
+    <col min="18" max="18" width="9.52734375" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -253,19 +253,19 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>353.0</v>
+        <v>41.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0056657223796034</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.115</v>
+        <v>0.34</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="M2" s="7" t="n">
         <v>0.0</v>
@@ -298,10 +298,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -320,66 +320,66 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ101-PI-22</t>
+          <t>DO-YULQ001-PI-22</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>B078YMSFZJ</t>
+          <t>B079JQCWQ6</t>
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19602.0</v>
+        <v>175759.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>105.0</v>
+        <v>770.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.0053565962656871744</v>
+        <v>0.004380998981559977</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0.16561904761904758</v>
+        <v>0.14245454545454547</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>17.389999999999997</v>
+        <v>109.69000000000001</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>159.98</v>
+        <v>490.94</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0.10870108763595449</v>
+        <v>0.22342852487065631</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>9.199539965497413</v>
+        <v>4.475704257452821</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>0.007792207792207792</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R3" s="6" t="n">
-        <v>0.01904761904761905</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U3" s="7" t="n">
-        <v>159.98</v>
+        <v>367.96</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.0</v>
+        <v>122.97999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -388,76 +388,74 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ161-PI-22</t>
+          <t>DOLL-010-PI-22</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>B078XBY1MZ</t>
+          <t>B06XPJWWR4</t>
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37334.0</v>
+        <v>69760.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>129.0</v>
+        <v>194.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.003455295441152836</v>
+        <v>0.002780963302752294</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.164031007751938</v>
+        <v>0.27876288659793813</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>21.16</v>
+        <v>54.08</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.21244979919678716</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N4"/>
       <c r="O4" s="5" t="n">
-        <v>4.706994328922495</v>
+        <v>0.0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.007751937984496125</v>
+        <v>0.0</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>99.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -466,76 +464,76 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ001-PI-22</t>
+          <t>DOLL-0605-PI-22</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B079JQCWQ6</t>
+          <t>B076J6949M</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>121521.0</v>
+        <v>66385.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>679.0</v>
+        <v>319.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0055875116235054026</v>
+        <v>0.0048053024026512015</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.16416789396170842</v>
+        <v>0.2811598746081505</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>111.47000000000001</v>
+        <v>89.69000000000001</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>617.9200000000001</v>
+        <v>21.99</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.18039552045572244</v>
+        <v>4.078672123692589</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>5.543374899075984</v>
+        <v>0.2451778347641877</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>0.011782032400589101</v>
+        <v>0.003134796238244514</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" s="7" t="n">
-        <v>275.96999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="V5" s="7" t="n">
-        <v>341.95</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -554,37 +552,37 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>DOLL-010-PI-22</t>
+          <t>DOLL-020-PI-22</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B06XPJWWR4</t>
+          <t>B06XPKHVHC</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45908.0</v>
+        <v>30120.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>267.0</v>
+        <v>204.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.005815979785658274</v>
+        <v>0.006772908366533864</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>0.13307116104868913</v>
+        <v>0.2801470588235294</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>35.529999999999994</v>
+        <v>57.15</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>387.56999999999994</v>
+        <v>359.96000000000004</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09167376215909384</v>
+        <v>0.1587676408489832</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>10.9082465522094</v>
+        <v>6.298512685914262</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>4.0</v>
@@ -593,27 +591,27 @@
         <v>4.0</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>0.014981273408239702</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" s="7" t="n">
-        <v>197.98</v>
+        <v>359.96000000000004</v>
       </c>
       <c r="V6" s="7" t="n">
-        <v>189.58999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -622,76 +620,76 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>DOLL-0605-PI-22</t>
+          <t>DOLL-020-PI-22</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B076J6949M</t>
+          <t>B06XPKHVHC</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>100057.0</v>
+        <v>44741.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>502.0</v>
+        <v>293.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0050171402300688605</v>
+        <v>0.0065488031112402485</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.13936254980079682</v>
+        <v>0.3543344709897611</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>69.96000000000001</v>
+        <v>103.82000000000001</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>179.98</v>
+        <v>381.95</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.38870985665073904</v>
+        <v>0.2718156826809792</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>2.572612921669525</v>
+        <v>3.678963590830283</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.00398406374501992</v>
+        <v>0.017064846416382253</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>179.98</v>
+        <v>359.96</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.0</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -700,76 +698,74 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>DOLL-020-PI-22</t>
+          <t>DOLL-010-PI-22</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B06XPKHVHC</t>
+          <t>B06XPJWWR4</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30176.0</v>
+        <v>22701.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>266.0</v>
+        <v>95.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.008814952279957582</v>
+        <v>0.004184837672349236</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0.14086466165413533</v>
+        <v>0.3438947368421053</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>37.47</v>
+        <v>32.67</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>631.93</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.05929454211700663</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
       <c r="O8" s="5" t="n">
-        <v>16.864958633573526</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" s="7" t="n">
-        <v>449.95</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="7" t="n">
-        <v>181.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43282.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -797,44 +793,46 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>4074.0</v>
+        <v>9397.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.005645557191948944</v>
+        <v>0.0020219218899648825</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0.11695652173913045</v>
+        <v>0.14421052631578948</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>2.6900000000000004</v>
+        <v>2.74</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9"/>
+        <v>79.99</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.034254281785223155</v>
+      </c>
       <c r="O9" s="5" t="n">
-        <v>0.0</v>
+        <v>29.193430656934304</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>0.0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
       <c r="V9" s="7" t="n">
         <v>0.0</v>
@@ -842,10 +840,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -854,47 +852,47 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>DOLL-0630-PI-22</t>
+          <t>DOLL-0603-NZ-22</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B076J4L24W</t>
+          <t>B077SDPC6N</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>37826.0</v>
+        <v>37951.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>188.0</v>
+        <v>108.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.004970126368106593</v>
+        <v>0.002845774814892888</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>0.13478723404255322</v>
+        <v>0.3167592592592592</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>25.340000000000003</v>
+        <v>34.209999999999994</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>179.98</v>
+        <v>179.2</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.14079342149127683</v>
+        <v>0.19090401785714284</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>7.102604577742698</v>
+        <v>5.238234434375914</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>2.0</v>
@@ -903,7 +901,7 @@
         <v>2.0</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.010638297872340425</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>2.0</v>
@@ -912,7 +910,7 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>179.98</v>
+        <v>179.2</v>
       </c>
       <c r="V10" s="7" t="n">
         <v>0.0</v>
@@ -920,10 +918,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -942,64 +940,66 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>DOLL-008-W0-22</t>
+          <t>DO-YULQ061-W0-22</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B079M128Y6</t>
+          <t>B079DRCQ6B</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>20591.0</v>
+        <v>37703.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>225.0</v>
+        <v>439.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.010927104074595698</v>
+        <v>0.011643635784950802</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.13004444444444443</v>
+        <v>0.2543280182232346</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>29.259999999999998</v>
+        <v>111.64999999999998</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11"/>
+        <v>88.99</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>1.2546353522867737</v>
+      </c>
       <c r="O11" s="5" t="n">
-        <v>0.0</v>
+        <v>0.7970443349753695</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>0.0</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="S11" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" s="7" t="n">
-        <v>0.0</v>
+        <v>88.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -1018,66 +1018,64 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ610-R2-22</t>
+          <t>DO-YULQ171-B0-22</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B0793RW7P4</t>
+          <t>B079NW9791</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>65749.0</v>
+        <v>7141.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>391.0</v>
+        <v>45.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.005946858507353724</v>
+        <v>0.0063016384259907575</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>0.14181585677749362</v>
+        <v>0.27688888888888885</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>55.45</v>
+        <v>12.459999999999999</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>214.96999999999997</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.2579429687863423</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N12"/>
       <c r="O12" s="5" t="n">
-        <v>3.8768259693417484</v>
+        <v>0.0</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12" s="6" t="n">
-        <v>0.0076726342710997444</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" s="7" t="n">
-        <v>214.96999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1096,28 +1094,28 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ230-PI-16</t>
+          <t>DOLL-1630-R0-22</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B0795M8J8G</t>
+          <t>B076P99TGC</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>21104.0</v>
+        <v>6061.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>122.0</v>
+        <v>34.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.005780894617134193</v>
+        <v>0.005609635373700708</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0.14098360655737704</v>
+        <v>0.2602941176470588</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>17.2</v>
+        <v>8.85</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>0.0</v>
@@ -1150,10 +1148,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1162,49 +1160,55 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>Full silicone</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>DOLL-1630-R0-22</t>
+          <t>DO-YULQ610-R2-22</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B076P99TGC</t>
+          <t>B0793RW7P4</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>1.0</v>
+        <v>36874.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0.0</v>
+        <v>183.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K14"/>
+        <v>0.0049628464500732225</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>0.27103825136612025</v>
+      </c>
       <c r="L14" s="7" t="n">
-        <v>0.0</v>
+        <v>49.6</v>
       </c>
       <c r="M14" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N14"/>
-      <c r="O14"/>
+      <c r="O14" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14"/>
+      <c r="R14" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1220,10 +1224,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1232,12 +1236,12 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
@@ -1251,19 +1255,19 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>20690.0</v>
+        <v>23685.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>42.0</v>
+        <v>73.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.002029966167230546</v>
+        <v>0.0030821194849060592</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0.2621428571428571</v>
+        <v>0.2897260273972603</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>11.01</v>
+        <v>21.150000000000002</v>
       </c>
       <c r="M15" s="7" t="n">
         <v>0.0</v>
@@ -1296,10 +1300,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1308,65 +1312,55 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>Black doll</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ010-P0-22</t>
+          <t>DO-YULQ153-B7-22</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B078X59HSZ</t>
+          <t>B07BDDC5WH</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>37724.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>260.0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>0.006892164139539816</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0.13715384615384618</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
       <c r="L16" s="7" t="n">
-        <v>35.660000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>89.99</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.39626625180575625</v>
-      </c>
-      <c r="O16" s="5" t="n">
-        <v>2.523555804823331</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="6" t="n">
-        <v>0.0038461538461538464</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R16"/>
       <c r="S16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U16" s="7" t="n">
-        <v>89.99</v>
+        <v>0.0</v>
       </c>
       <c r="V16" s="7" t="n">
         <v>0.0</v>
@@ -1374,10 +1368,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1386,55 +1380,47 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>Black doll</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ011-NZ-22</t>
+          <t>DO-YULQ638-LGR-20</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B0793QLQ3Z</t>
+          <t>B07B7G22RT</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>12201.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>0.002868617326448652</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0.13914285714285715</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" s="7" t="n">
-        <v>4.87</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N17"/>
-      <c r="O17" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O17"/>
       <c r="P17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R17" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R17"/>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1450,10 +1436,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43277.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1462,55 +1448,47 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>Black doll</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ158-W0-22</t>
+          <t>DO-YULQ639-LGR-22</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B0795M2NML</t>
+          <t>B07BFVHDDP</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>7694.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>0.00857811281518066</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0.14409090909090908</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" s="7" t="n">
-        <v>9.51</v>
+        <v>0.0</v>
       </c>
       <c r="M18" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N18"/>
-      <c r="O18" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O18"/>
       <c r="P18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R18" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R18"/>
       <c r="S18" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1526,10 +1504,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1538,7 +1516,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1548,23 +1526,21 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ638-PI-20</t>
+          <t>DOLL-1630-R0-22</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B07929YDZM</t>
+          <t>B076P99TGC</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J19" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="7" t="n">
         <v>0.0</v>
@@ -1596,10 +1572,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1608,65 +1584,57 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>DOLL-AD011-PI-22</t>
+          <t>DO-YULQ639-R2-22</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B077SGXYL6</t>
+          <t>B07BFVXKTL</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>24189.0</v>
+        <v>10.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>135.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.005581049237256604</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0.15296296296296294</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K20"/>
       <c r="L20" s="7" t="n">
-        <v>20.65</v>
+        <v>0.0</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.2073293172690763</v>
-      </c>
-      <c r="O20" s="5" t="n">
-        <v>4.823244552058111</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
       <c r="P20" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R20" s="6" t="n">
-        <v>0.007407407407407408</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R20"/>
       <c r="S20" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" s="7" t="n">
-        <v>99.6</v>
+        <v>0.0</v>
       </c>
       <c r="V20" s="7" t="n">
         <v>0.0</v>
@@ -1674,10 +1642,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43277.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1686,63 +1654,65 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>Black doll</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ157-W0-22</t>
+          <t>DO-YULQ230-PI-16</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B0795M2NML</t>
+          <t>B0795M8J8G</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>753.0</v>
+        <v>3863.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.010624169986719787</v>
+        <v>0.007765984985762361</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0.17</v>
+        <v>0.27566666666666667</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>1.36</v>
+        <v>8.27</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N21"/>
+        <v>79.99</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.10338792349043631</v>
+      </c>
       <c r="O21" s="5" t="n">
-        <v>0.0</v>
+        <v>9.672309552599758</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>0.0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U21" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
       <c r="V21" s="7" t="n">
         <v>0.0</v>
@@ -1750,10 +1720,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1767,71 +1737,69 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>Doll 10</t>
+          <t>Black doll</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>DOLL-006-PI-10</t>
+          <t>DO-YULQ011-NZ-22</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B076Q7DCP1</t>
+          <t>B0793QLQ3Z</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>55106.0</v>
+        <v>5808.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>305.0</v>
+        <v>6.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.005534787500453671</v>
+        <v>0.0010330578512396695</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>0.1718688524590164</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>52.42</v>
+        <v>2.34</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>107.96</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.4855502037791775</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N22"/>
       <c r="O22" s="5" t="n">
-        <v>2.0595192674551694</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" s="6" t="n">
-        <v>0.013114754098360654</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" s="7" t="n">
-        <v>53.98</v>
+        <v>0.0</v>
       </c>
       <c r="V22" s="7" t="n">
-        <v>53.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1845,33 +1813,33 @@
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Black doll</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ071-B7-16</t>
+          <t>DO-YULQ158-W0-22</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B07BFV7XQM</t>
+          <t>B0795M2NML</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>5541.0</v>
+        <v>2963.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.007579859231185706</v>
+        <v>0.0030374620317246033</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.115</v>
+        <v>0.2822222222222222</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>4.83</v>
+        <v>2.54</v>
       </c>
       <c r="M23" s="7" t="n">
         <v>0.0</v>
@@ -1904,10 +1872,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1921,71 +1889,63 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ021-W0-22</t>
+          <t>DO-YULQ638-PI-20</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B079P52R76</t>
+          <t>B07929YDZM</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>11758.0</v>
+        <v>16.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0030617451947610136</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0.16694444444444445</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K24"/>
       <c r="L24" s="7" t="n">
-        <v>6.01</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>91.99</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>0.0653331883900424</v>
-      </c>
-      <c r="O24" s="5" t="n">
-        <v>15.306156405990016</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
       <c r="P24" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R24" s="6" t="n">
-        <v>0.027777777777777776</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R24"/>
       <c r="S24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>91.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43276.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1999,71 +1959,63 @@
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Full silicone</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ070-PI-16</t>
+          <t>DO-YULQ011-NZ-22</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B079NYR8GC</t>
+          <t>B0793QLQ3Z</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>28780.0</v>
+        <v>4.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>116.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.004030576789437109</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>0.2230172413793103</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K25"/>
       <c r="L25" s="7" t="n">
-        <v>25.869999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>509.94</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.050731458602972894</v>
-      </c>
-      <c r="O25" s="5" t="n">
-        <v>19.711635098569772</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
       <c r="P25" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R25" s="6" t="n">
-        <v>0.05172413793103448</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R25"/>
       <c r="S25" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" s="7" t="n">
-        <v>239.96999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="V25" s="7" t="n">
-        <v>269.96999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43276.0</v>
+        <v>43335.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43282.0</v>
+        <v>43335.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2082,55 +2034,45 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ153-B7-22</t>
+          <t>DO-YULQ516-B0-22</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B07BDDC5WH</t>
+          <t>B07BFVWCV4</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>7031.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="J26" s="6" t="n">
-        <v>0.008675864030721092</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0.13491803278688522</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26" s="7" t="n">
-        <v>8.229999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>99.99</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.08230823082308229</v>
-      </c>
-      <c r="O26" s="5" t="n">
-        <v>12.149453219927098</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R26" s="6" t="n">
-        <v>0.01639344262295082</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R26"/>
       <c r="S26" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U26" s="7" t="n">
-        <v>99.99</v>
+        <v>0.0</v>
       </c>
       <c r="V26" s="7" t="n">
         <v>0.0</v>
@@ -2138,10 +2080,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2160,66 +2102,64 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ107-PI-22</t>
+          <t>DO-YULQ021-W0-22</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B0795PQJS1</t>
+          <t>B079P52R76</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>27566.0</v>
+        <v>1084.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>95.0</v>
+        <v>10.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0034462743959950666</v>
+        <v>0.00922509225092251</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>0.23789473684210527</v>
+        <v>0.24900000000000003</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>22.6</v>
+        <v>2.49</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>263.96999999999997</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>0.08561578967306892</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N27"/>
       <c r="O27" s="5" t="n">
-        <v>11.68008849557522</v>
+        <v>0.0</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>0.031578947368421054</v>
+        <v>0.0</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>263.96999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2228,74 +2168,76 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ171-LGR-22</t>
+          <t>DO-YULQ063-PI-22</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B0795117ZD</t>
+          <t>B079P24VZF</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>9772.0</v>
+        <v>19611.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>65.0</v>
+        <v>117.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.006651657797789603</v>
+        <v>0.005966039467645709</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>0.13046153846153846</v>
+        <v>0.30735042735042734</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>8.48</v>
+        <v>35.96</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N28"/>
+        <v>79.99</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0.44955619452431556</v>
+      </c>
       <c r="O28" s="5" t="n">
-        <v>0.0</v>
+        <v>2.2244160177975525</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>0.0</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T28" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U28" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2304,38 +2246,38 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ105-R2-22</t>
+          <t>DO-YULQ070-PI-16</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B0794Z23LW</t>
+          <t>B079NYR8GC</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>11916.0</v>
+        <v>30784.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>55.0</v>
+        <v>144.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.004615642833165492</v>
+        <v>0.004677754677754678</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>0.13545454545454544</v>
+        <v>0.2854861111111111</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>7.449999999999999</v>
+        <v>41.11</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>0.0</v>
@@ -2368,10 +2310,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2380,74 +2322,76 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ664-AX-16</t>
+          <t>DO-YULQ162-PI-16</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B07BSN65PZ</t>
+          <t>B07BFVF3GM</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>5474.0</v>
+        <v>15264.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>43.0</v>
+        <v>89.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.007855316039459262</v>
+        <v>0.005830712788259958</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>0.13767441860465116</v>
+        <v>0.3131460674157303</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>5.92</v>
+        <v>27.869999999999997</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N30"/>
+        <v>165.98</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.16791179660200023</v>
+      </c>
       <c r="O30" s="5" t="n">
-        <v>0.0</v>
+        <v>5.955507714388231</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>0.0</v>
+        <v>0.022471910112359553</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" s="7" t="n">
-        <v>0.0</v>
+        <v>85.99</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2456,38 +2400,38 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ606-W0-22</t>
+          <t>DO-YULQ107-PI-22</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B07BSFP5QZ</t>
+          <t>B0795PQJS1</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>1128.0</v>
+        <v>14903.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>12.0</v>
+        <v>59.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.010638297872340425</v>
+        <v>0.0039589344427296514</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>0.135</v>
+        <v>0.2664406779661017</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>1.62</v>
+        <v>15.72</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
@@ -2520,10 +2464,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2542,47 +2486,55 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ372-R0-22</t>
+          <t>DO-YULQ105-R2-22</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B07BSC5Q33</t>
+          <t>B0794Z23LW</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>708.0</v>
+        <v>4996.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K32"/>
+        <v>0.011008807045636509</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>0.2703636363636363</v>
+      </c>
       <c r="L32" s="7" t="n">
-        <v>0.0</v>
+        <v>14.869999999999997</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N32"/>
-      <c r="O32"/>
+        <v>69.99</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0.2124589227032433</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <v>4.7067921990585075</v>
+      </c>
       <c r="P32" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32"/>
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="6" t="n">
+        <v>0.01818181818181818</v>
+      </c>
       <c r="S32" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U32" s="7" t="n">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
       <c r="V32" s="7" t="n">
         <v>0.0</v>
@@ -2590,10 +2542,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43282.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2612,64 +2564,66 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ631-R2-22</t>
+          <t>DO-YULQ638-PI-20</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B07BSHY6ZL</t>
+          <t>B07929YDZM</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>5362.0</v>
+        <v>3946.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.008019395747855278</v>
+        <v>0.003294475418144957</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>0.11232558139534884</v>
+        <v>0.3123076923076923</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>4.83</v>
+        <v>4.06</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33"/>
+        <v>99.99</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0.0406040604060406</v>
+      </c>
       <c r="O33" s="5" t="n">
-        <v>0.0</v>
+        <v>24.628078817733993</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R33" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" s="7" t="n">
-        <v>0.0</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2688,28 +2642,28 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ605-PI-22</t>
+          <t>DO-YULQ042-W0-22</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B07BSD41QJ</t>
+          <t>B07B9C9WPT</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>5295.0</v>
+        <v>4733.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>55.0</v>
+        <v>38.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.010387157695939566</v>
+        <v>0.008028734417916754</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>0.10800000000000001</v>
+        <v>0.2828947368421052</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>5.94</v>
+        <v>10.749999999999998</v>
       </c>
       <c r="M34" s="7" t="n">
         <v>0.0</v>
@@ -2742,10 +2696,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2754,38 +2708,38 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ163-B7-22</t>
+          <t>DO-YULQ664-AX-16</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B078XBDF6J</t>
+          <t>B07BSN65PZ</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>6856.0</v>
+        <v>6381.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.009772462077012836</v>
+        <v>0.010656636890769473</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>0.11985074626865667</v>
+        <v>0.29058823529411765</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>8.029999999999998</v>
+        <v>19.76</v>
       </c>
       <c r="M35" s="7" t="n">
         <v>0.0</v>
@@ -2818,10 +2772,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2830,38 +2784,38 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll 2 auto</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ073-LGR-22</t>
+          <t>DO-YULQ163-B7-22</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B0792VRZ89</t>
+          <t>B078XBDF6J</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>4380.0</v>
+        <v>104937.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>35.0</v>
+        <v>317.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.007990867579908675</v>
+        <v>0.003020860135128696</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>0.13314285714285712</v>
+        <v>0.14719242902208202</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>4.659999999999999</v>
+        <v>46.66</v>
       </c>
       <c r="M36" s="7" t="n">
         <v>0.0</v>
@@ -2894,10 +2848,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2911,33 +2865,33 @@
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>Doll 10</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>DOLL-1613-LB-11</t>
+          <t>DO-YULQ073-LGR-22</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B076MVRP3M</t>
+          <t>B0792VRZ89</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>7436.0</v>
+        <v>4899.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>96.0</v>
+        <v>23.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.012910166756320602</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>0.1786458333333333</v>
+        <v>0.2460869565217391</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>17.15</v>
+        <v>5.659999999999999</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
@@ -2970,10 +2924,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43282.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2982,49 +2936,55 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ012-PI-22</t>
+          <t>DO-YULQ812-W0-18</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B076J2H7FC</t>
+          <t>B0792VKCCR</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>253.0</v>
+        <v>8857.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38"/>
+        <v>0.005306537202212938</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0.30340425531914894</v>
+      </c>
       <c r="L38" s="7" t="n">
-        <v>0.0</v>
+        <v>14.26</v>
       </c>
       <c r="M38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N38"/>
-      <c r="O38"/>
+      <c r="O38" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R38"/>
+      <c r="R38" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3040,10 +3000,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43276.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -3057,71 +3017,69 @@
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll 10</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ123-FB-22</t>
+          <t>DOLL-1613-LB-11</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B0792VZN9S</t>
+          <t>B076MVRP3M</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>27578.0</v>
+        <v>37.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>288.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.010443106824280225</v>
+        <v>0.027027027027027025</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>0.13100694444444447</v>
+        <v>0.13</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>37.730000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>179.98</v>
-      </c>
-      <c r="N39" s="6" t="n">
-        <v>0.209634403822647</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N39"/>
       <c r="O39" s="5" t="n">
-        <v>4.770209382454279</v>
+        <v>0.0</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R39" s="6" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.0</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U39" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V39" s="7" t="n">
-        <v>179.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3130,55 +3088,49 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ121-PI-22</t>
+          <t>DO-YULQ012-PI-22</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B07CM347WF</t>
+          <t>B076J2H7FC</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>10862.0</v>
+        <v>68.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>128.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.0117842018044559</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0.12890625</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" s="7" t="n">
-        <v>16.5</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O40"/>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R40"/>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3194,10 +3146,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43282.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3216,66 +3168,56 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ152-Z1-22</t>
+          <t>DO-YULQ123-FB-22</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B07CN4J1B2</t>
+          <t>B0792VZN9S</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>4527.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="J41" s="6" t="n">
-        <v>0.008835873647006848</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0.11699999999999999</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
       <c r="L41" s="7" t="n">
-        <v>4.68</v>
+        <v>0.0</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>79.99</v>
-      </c>
-      <c r="N41" s="6" t="n">
-        <v>0.05850731341417678</v>
-      </c>
-      <c r="O41" s="5" t="n">
-        <v>17.09188034188034</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R41" s="6" t="n">
-        <v>0.025</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R41"/>
       <c r="S41" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U41" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V41" s="7" t="n">
-        <v>79.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43276.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3303,28 +3245,28 @@
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>57795.0</v>
+        <v>39134.0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>431.0</v>
+        <v>287.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.007457392508002422</v>
+        <v>0.007333776255941126</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>0.1368909512761021</v>
+        <v>0.2518815331010453</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>59.0</v>
+        <v>72.28999999999999</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>171.98</v>
+        <v>91.97999999999999</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.34306314687754397</v>
+        <v>0.7859317242878887</v>
       </c>
       <c r="O42" s="5" t="n">
-        <v>2.914915254237288</v>
+        <v>1.2723751556231844</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>2.0</v>
@@ -3333,27 +3275,27 @@
         <v>2.0</v>
       </c>
       <c r="R42" s="6" t="n">
-        <v>0.004640371229698376</v>
+        <v>0.006968641114982579</v>
       </c>
       <c r="S42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="T42" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U42" s="7" t="n">
-        <v>171.98</v>
+        <v>0.0</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>0.0</v>
+        <v>91.97999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43277.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43277.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3381,28 +3323,36 @@
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>0.0</v>
+        <v>1674.0</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
+        <v>5.0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>0.002986857825567503</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0.32799999999999996</v>
+      </c>
       <c r="L43" s="7" t="n">
-        <v>0.0</v>
+        <v>1.64</v>
       </c>
       <c r="M43" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N43"/>
-      <c r="O43"/>
+      <c r="O43" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P43" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R43"/>
+      <c r="R43" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S43" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3418,10 +3368,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3430,74 +3380,76 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll 2 auto</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ151-W0-16</t>
+          <t>DO-YULQ701-PI-22</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B07CN4J157</t>
+          <t>B07CM9N213</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>16898.0</v>
+        <v>23841.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>41.0</v>
+        <v>182.0</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0024263226417327493</v>
+        <v>0.007633907973658823</v>
       </c>
       <c r="K44" s="7" t="n">
-        <v>0.14585365853658536</v>
+        <v>0.14054945054945056</v>
       </c>
       <c r="L44" s="7" t="n">
-        <v>5.9799999999999995</v>
+        <v>25.580000000000002</v>
       </c>
       <c r="M44" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N44"/>
+        <v>184.98</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>0.13828522002378638</v>
+      </c>
       <c r="O44" s="5" t="n">
-        <v>0.0</v>
+        <v>7.231430805316653</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R44" s="6" t="n">
-        <v>0.0</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T44" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U44" s="7" t="n">
-        <v>0.0</v>
+        <v>92.99</v>
       </c>
       <c r="V44" s="7" t="n">
-        <v>0.0</v>
+        <v>91.99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43277.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3506,68 +3458,76 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
+          <t>Doll 2 auto</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
           <t>Doll boy</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>Full silicone</t>
-        </is>
-      </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ985-B7-20</t>
+          <t>DO-YULQ702-PI-22</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B07CM67KDW</t>
+          <t>B07CM6R65H</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>4.0</v>
+        <v>141603.0</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.0</v>
+        <v>777.0</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K45"/>
+        <v>0.005487171881951653</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0.14355212355212357</v>
+      </c>
       <c r="L45" s="7" t="n">
-        <v>0.0</v>
+        <v>111.54</v>
       </c>
       <c r="M45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
+        <v>789.8299999999999</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0.1412202625881519</v>
+      </c>
+      <c r="O45" s="5" t="n">
+        <v>7.081136811906042</v>
+      </c>
       <c r="P45" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R45"/>
+        <v>8.0</v>
+      </c>
+      <c r="R45" s="6" t="n">
+        <v>0.010296010296010296</v>
+      </c>
       <c r="S45" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U45" s="7" t="n">
-        <v>0.0</v>
+        <v>599.9399999999999</v>
       </c>
       <c r="V45" s="7" t="n">
-        <v>0.0</v>
+        <v>189.89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3586,66 +3546,66 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ701-PI-22</t>
+          <t>DO-YULQ703-PI-22</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B07CM9N213</t>
+          <t>B07CN76YH9</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>36905.0</v>
+        <v>29041.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>140.0</v>
+        <v>161.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.0037935239127489502</v>
+        <v>0.005543886229813023</v>
       </c>
       <c r="K46" s="7" t="n">
-        <v>0.1462857142857143</v>
+        <v>0.13931677018633543</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>20.48</v>
+        <v>22.430000000000003</v>
       </c>
       <c r="M46" s="7" t="n">
-        <v>92.99</v>
+        <v>349.96</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.22023873534788688</v>
+        <v>0.06409303920448052</v>
       </c>
       <c r="O46" s="5" t="n">
-        <v>4.54052734375</v>
+        <v>15.602318323673648</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R46" s="6" t="n">
-        <v>0.007142857142857143</v>
+        <v>0.024844720496894408</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T46" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U46" s="7" t="n">
-        <v>92.99</v>
+        <v>269.96999999999997</v>
       </c>
       <c r="V46" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43282.0</v>
+        <v>43337.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3659,71 +3619,71 @@
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ702-PI-22</t>
+          <t>DO-YULQ700-PI-22</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B07CM6R65H</t>
+          <t>B07CM58KHK</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>10568.0</v>
+        <v>38248.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>99.0</v>
+        <v>257.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.00936790310370931</v>
+        <v>0.006719305584605731</v>
       </c>
       <c r="K47" s="7" t="n">
-        <v>0.11595959595959597</v>
+        <v>0.13700389105058366</v>
       </c>
       <c r="L47" s="7" t="n">
-        <v>11.48</v>
+        <v>35.21</v>
       </c>
       <c r="M47" s="7" t="n">
-        <v>199.98</v>
+        <v>218.97</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.05740574057405741</v>
+        <v>0.16079828286979952</v>
       </c>
       <c r="O47" s="5" t="n">
-        <v>17.419860627177698</v>
+        <v>6.218971882987788</v>
       </c>
       <c r="P47" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q47" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R47" s="6" t="n">
+        <v>0.011673151750972763</v>
+      </c>
+      <c r="S47" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T47" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q47" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R47" s="6" t="n">
-        <v>0.020202020202020204</v>
-      </c>
-      <c r="S47" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T47" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U47" s="7" t="n">
-        <v>199.98</v>
+        <v>99.99</v>
       </c>
       <c r="V47" s="7" t="n">
-        <v>0.0</v>
+        <v>118.98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3732,38 +3692,38 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll boy</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ703-PI-22</t>
+          <t>DO-YULQ123-FB-22</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B07CN76YH9</t>
+          <t>B0792VZN9S</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>17223.0</v>
+        <v>2581.0</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.003425651744759914</v>
+        <v>0.01588531576908175</v>
       </c>
       <c r="K48" s="7" t="n">
-        <v>0.12915254237288137</v>
+        <v>0.14560975609756094</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>7.620000000000001</v>
+        <v>5.969999999999999</v>
       </c>
       <c r="M48" s="7" t="n">
         <v>0.0</v>
@@ -3796,10 +3756,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43276.0</v>
+        <v>43338.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3808,7 +3768,7 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -3818,66 +3778,56 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ700-PI-22</t>
+          <t>DO-YULQ330-PI-18</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B07CM58KHK</t>
+          <t>B0792VK5C4</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>82771.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>538.0</v>
-      </c>
-      <c r="J49" s="6" t="n">
-        <v>0.006499861062449408</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0.14884758364312267</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49" s="7" t="n">
-        <v>80.08</v>
+        <v>0.0</v>
       </c>
       <c r="M49" s="7" t="n">
-        <v>304.96</v>
-      </c>
-      <c r="N49" s="6" t="n">
-        <v>0.262591815320042</v>
-      </c>
-      <c r="O49" s="5" t="n">
-        <v>3.808191808191808</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R49" s="6" t="n">
-        <v>0.007434944237918215</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R49"/>
       <c r="S49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T49" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U49" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V49" s="7" t="n">
-        <v>304.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3886,63 +3836,65 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ123-FB-22</t>
+          <t>DO-YULQ350-PI-22</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B0792VZN9S</t>
+          <t>B0795M8ZGB</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>2528.0</v>
+        <v>13703.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>29.0</v>
+        <v>78.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.011471518987341773</v>
+        <v>0.005692184193242356</v>
       </c>
       <c r="K50" s="7" t="n">
-        <v>0.19724137931034483</v>
+        <v>0.2606410256410256</v>
       </c>
       <c r="L50" s="7" t="n">
-        <v>5.72</v>
+        <v>20.33</v>
       </c>
       <c r="M50" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N50"/>
+        <v>79.99</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0.25415676959619954</v>
+      </c>
       <c r="O50" s="5" t="n">
-        <v>0.0</v>
+        <v>3.9345794392523366</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R50" s="6" t="n">
-        <v>0.0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T50" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U50" s="7" t="n">
-        <v>0.0</v>
+        <v>79.99</v>
       </c>
       <c r="V50" s="7" t="n">
         <v>0.0</v>
@@ -3950,10 +3902,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3972,28 +3924,28 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ516-B0-22</t>
+          <t>DO-YULQ704-B0-24</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B07BFVWCV4</t>
+          <t>B07D4DDT41</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>256.0</v>
+        <v>1639.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.015625</v>
+        <v>0.017083587553386213</v>
       </c>
       <c r="K51" s="7" t="n">
-        <v>0.1</v>
+        <v>0.15607142857142858</v>
       </c>
       <c r="L51" s="7" t="n">
-        <v>0.4</v>
+        <v>4.37</v>
       </c>
       <c r="M51" s="7" t="n">
         <v>0.0</v>
@@ -4026,10 +3978,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -4038,74 +3990,76 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>Doll boy</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ704-B0-24</t>
+          <t>DO-YULQ707-PI-24</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B07D4DDT41</t>
+          <t>B07D4DRFYN</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>330.0</v>
+        <v>13303.0</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>3.0</v>
+        <v>107.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.00804329850409682</v>
       </c>
       <c r="K52" s="7" t="n">
-        <v>0.2833333333333334</v>
+        <v>0.2761682242990654</v>
       </c>
       <c r="L52" s="7" t="n">
-        <v>0.8500000000000001</v>
+        <v>29.55</v>
       </c>
       <c r="M52" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N52"/>
+        <v>217.98</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>0.13556289567850263</v>
+      </c>
       <c r="O52" s="5" t="n">
-        <v>0.0</v>
+        <v>7.376649746192893</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R52" s="6" t="n">
-        <v>0.0</v>
+        <v>0.018691588785046728</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U52" s="7" t="n">
-        <v>0.0</v>
+        <v>108.99</v>
       </c>
       <c r="V52" s="7" t="n">
-        <v>0.0</v>
+        <v>108.99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4133,30 +4087,36 @@
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>144.0</v>
+        <v>706.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K53"/>
+        <v>0.0084985835694051</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0.10166666666666667</v>
+      </c>
       <c r="L53" s="7" t="n">
-        <v>0.0</v>
+        <v>0.61</v>
       </c>
       <c r="M53" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N53"/>
-      <c r="O53"/>
+      <c r="O53" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P53" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53"/>
+      <c r="R53" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S53" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4172,10 +4132,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4203,19 +4163,19 @@
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>181.0</v>
+        <v>3550.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.005524861878453038</v>
+        <v>0.0050704225352112674</v>
       </c>
       <c r="K54" s="7" t="n">
-        <v>0.27</v>
+        <v>0.2288888888888889</v>
       </c>
       <c r="L54" s="7" t="n">
-        <v>0.27</v>
+        <v>4.12</v>
       </c>
       <c r="M54" s="7" t="n">
         <v>0.0</v>
@@ -4248,10 +4208,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4260,76 +4220,74 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Doll 22</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ707-PI-24</t>
+          <t>DO-YULQ708-W0-24</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B07D4DRFYN</t>
+          <t>B07D4DC72D</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>8912.0</v>
+        <v>308.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>27.0</v>
+        <v>2.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.0030296229802513463</v>
+        <v>0.006493506493506493</v>
       </c>
       <c r="K55" s="7" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="L55" s="7" t="n">
-        <v>3.51</v>
+        <v>0.58</v>
       </c>
       <c r="M55" s="7" t="n">
-        <v>99.99</v>
-      </c>
-      <c r="N55" s="6" t="n">
-        <v>0.0351035103510351</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N55"/>
       <c r="O55" s="5" t="n">
-        <v>28.48717948717949</v>
+        <v>0.0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R55" s="6" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.0</v>
       </c>
       <c r="S55" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T55" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U55" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V55" s="7" t="n">
-        <v>99.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4348,66 +4306,66 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ173-B7-22</t>
+          <t>DO-YULQ707-PI-24</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B07BFVYCH2</t>
+          <t>B07D4DRFYN</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>49973.0</v>
+        <v>12671.0</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>390.0</v>
+        <v>64.0</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.007804214275708883</v>
+        <v>0.005050903638229026</v>
       </c>
       <c r="K56" s="7" t="n">
-        <v>0.1326923076923077</v>
+        <v>0.2890625</v>
       </c>
       <c r="L56" s="7" t="n">
-        <v>51.75</v>
+        <v>18.5</v>
       </c>
       <c r="M56" s="7" t="n">
-        <v>449.56</v>
+        <v>104.99</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.11511255449773111</v>
+        <v>0.17620725783407945</v>
       </c>
       <c r="O56" s="5" t="n">
-        <v>8.687149758454106</v>
+        <v>5.675135135135135</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="R56" s="6" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.015625</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T56" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U56" s="7" t="n">
-        <v>269.96999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="V56" s="7" t="n">
-        <v>179.58999999999997</v>
+        <v>104.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4435,19 +4393,19 @@
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>16001.0</v>
+        <v>579.0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>107.0</v>
+        <v>12.0</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.006687082057371414</v>
+        <v>0.020725388601036274</v>
       </c>
       <c r="K57" s="7" t="n">
-        <v>0.17785046728971965</v>
+        <v>0.155</v>
       </c>
       <c r="L57" s="7" t="n">
-        <v>19.03</v>
+        <v>1.86</v>
       </c>
       <c r="M57" s="7" t="n">
         <v>0.0</v>
@@ -4480,10 +4438,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43276.0</v>
+        <v>43337.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4497,42 +4455,42 @@
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>Doll 10</t>
+          <t>Doll 22</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ081-PI-10</t>
+          <t>DO-YULQ708-W0-24</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B07BLRWT2V</t>
+          <t>B07D4DC72D</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>18863.0</v>
+        <v>3315.0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>85.0</v>
+        <v>7.0</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>0.004506176111965223</v>
+        <v>0.0021116138763197585</v>
       </c>
       <c r="K58" s="7" t="n">
-        <v>0.17305882352941176</v>
+        <v>0.35428571428571426</v>
       </c>
       <c r="L58" s="7" t="n">
-        <v>14.709999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="M58" s="7" t="n">
-        <v>37.99</v>
+        <v>21.99</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.38720715977888914</v>
+        <v>0.11277853569804458</v>
       </c>
       <c r="O58" s="5" t="n">
-        <v>2.582596872875595</v>
+        <v>8.866935483870968</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>1.0</v>
@@ -4541,27 +4499,27 @@
         <v>1.0</v>
       </c>
       <c r="R58" s="6" t="n">
-        <v>0.011764705882352941</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T58" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U58" s="7" t="n">
-        <v>37.99</v>
+        <v>0.0</v>
       </c>
       <c r="V58" s="7" t="n">
-        <v>0.0</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43277.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4589,57 +4547,55 @@
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>5288.0</v>
+        <v>752.0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>64.0</v>
+        <v>2.0</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>0.012102874432677761</v>
+        <v>0.0026595744680851063</v>
       </c>
       <c r="K59" s="7" t="n">
-        <v>0.16921875</v>
+        <v>0.13</v>
       </c>
       <c r="L59" s="7" t="n">
-        <v>10.83</v>
+        <v>0.26</v>
       </c>
       <c r="M59" s="7" t="n">
-        <v>87.97</v>
-      </c>
-      <c r="N59" s="6" t="n">
-        <v>0.12311015118790497</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
       <c r="O59" s="5" t="n">
-        <v>8.12280701754386</v>
+        <v>0.0</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R59" s="6" t="n">
-        <v>0.046875</v>
+        <v>0.0</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T59" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U59" s="7" t="n">
-        <v>65.98</v>
+        <v>0.0</v>
       </c>
       <c r="V59" s="7" t="n">
-        <v>21.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43276.0</v>
+        <v>43335.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4667,57 +4623,57 @@
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>41367.0</v>
+        <v>45918.0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>251.0</v>
+        <v>336.0</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>0.006067638455773926</v>
+        <v>0.007317391872468313</v>
       </c>
       <c r="K60" s="7" t="n">
-        <v>0.17063745019920318</v>
+        <v>0.14529761904761904</v>
       </c>
       <c r="L60" s="7" t="n">
-        <v>42.83</v>
+        <v>48.82</v>
       </c>
       <c r="M60" s="7" t="n">
-        <v>272.96</v>
+        <v>169.98</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.15690943728018758</v>
+        <v>0.28721026003059186</v>
       </c>
       <c r="O60" s="5" t="n">
-        <v>6.3731029652113005</v>
+        <v>3.4817697664891436</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R60" s="6" t="n">
-        <v>0.01593625498007968</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T60" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U60" s="7" t="n">
-        <v>239.96999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="V60" s="7" t="n">
-        <v>32.99</v>
+        <v>169.98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4726,76 +4682,74 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Doll 2 auto</t>
+          <t>Doll automatic</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>Doll girl</t>
+          <t>Doll 10</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ111-PI-22</t>
+          <t>DOLL-005-WO-11</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B079JQ6R99</t>
+          <t>B076PDDZW9</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>31775.0</v>
+        <v>3235.0</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>189.0</v>
+        <v>32.0</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>0.005948072383949646</v>
+        <v>0.009891808346213293</v>
       </c>
       <c r="K61" s="7" t="n">
-        <v>0.16386243386243388</v>
+        <v>0.15375000000000003</v>
       </c>
       <c r="L61" s="7" t="n">
-        <v>30.970000000000002</v>
+        <v>4.920000000000001</v>
       </c>
       <c r="M61" s="7" t="n">
-        <v>319.96</v>
-      </c>
-      <c r="N61" s="6" t="n">
-        <v>0.0967933491686461</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N61"/>
       <c r="O61" s="5" t="n">
-        <v>10.331288343558281</v>
+        <v>0.0</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R61" s="6" t="n">
-        <v>0.021164021164021163</v>
+        <v>0.0</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T61" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U61" s="7" t="n">
-        <v>239.96999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="V61" s="7" t="n">
-        <v>79.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43276.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4804,76 +4758,76 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Doll automatic</t>
+          <t>Doll girl</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>Doll 10</t>
+          <t>Toddler</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>DOLL-005-WO-11</t>
+          <t>DO-YULQ704-B0-24</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B076PDDZW9</t>
+          <t>B07D4DDT41</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>84141.0</v>
+        <v>8633.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>374.0</v>
+        <v>112.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.004444919836940374</v>
+        <v>0.01297347387930036</v>
       </c>
       <c r="K62" s="7" t="n">
-        <v>0.174331550802139</v>
+        <v>0.1924107142857143</v>
       </c>
       <c r="L62" s="7" t="n">
-        <v>65.19999999999999</v>
+        <v>21.55</v>
       </c>
       <c r="M62" s="7" t="n">
-        <v>26.99</v>
+        <v>217.98</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>2.415709522045202</v>
+        <v>0.0988622809432058</v>
       </c>
       <c r="O62" s="5" t="n">
-        <v>0.413957055214724</v>
+        <v>10.11508120649652</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R62" s="6" t="n">
-        <v>0.0026737967914438497</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T62" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U62" s="7" t="n">
-        <v>0.0</v>
+        <v>217.98</v>
       </c>
       <c r="V62" s="7" t="n">
-        <v>26.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4892,28 +4846,28 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ704-B0-24</t>
+          <t>DO-YULQ705-W0-22</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B07D4DDT41</t>
+          <t>B07D4D4876</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>158.0</v>
+        <v>22838.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>4.0</v>
+        <v>119.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.025316455696202535</v>
+        <v>0.005210613889132148</v>
       </c>
       <c r="K63" s="7" t="n">
-        <v>0.2675</v>
+        <v>0.19915966386554623</v>
       </c>
       <c r="L63" s="7" t="n">
-        <v>1.07</v>
+        <v>23.700000000000003</v>
       </c>
       <c r="M63" s="7" t="n">
         <v>0.0</v>
@@ -4946,10 +4900,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4968,28 +4922,28 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ705-W0-22</t>
+          <t>DO-YULQ706-R0-24</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B07D4D4876</t>
+          <t>B07D4D6Q9C</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>279.0</v>
+        <v>680.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.014336917562724014</v>
+        <v>0.014705882352941175</v>
       </c>
       <c r="K64" s="7" t="n">
-        <v>0.535</v>
+        <v>0.213</v>
       </c>
       <c r="L64" s="7" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="M64" s="7" t="n">
         <v>0.0</v>
@@ -5022,10 +4976,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43276.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -5044,39 +4998,45 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ706-R0-24</t>
+          <t>DO-YULQ707-PI-24</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B07D4D6Q9C</t>
+          <t>B07D4DRFYN</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>54.0</v>
+        <v>4433.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K65"/>
+        <v>0.007218587863749154</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0.21531250000000002</v>
+      </c>
       <c r="L65" s="7" t="n">
-        <v>0.0</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="M65" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N65"/>
-      <c r="O65"/>
+      <c r="O65" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P65" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R65"/>
+      <c r="R65" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S65" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5092,10 +5052,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43276.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43282.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -5114,37 +5074,37 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>DO-YULQ707-PI-24</t>
+          <t>DO-YULQ708-W0-24</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B07D4DRFYN</t>
+          <t>B07D4DC72D</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>109.0</v>
+        <v>5065.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>2.0</v>
+        <v>33.0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>0.01834862385321101</v>
+        <v>0.006515301085883513</v>
       </c>
       <c r="K66" s="7" t="n">
-        <v>0.255</v>
+        <v>0.2772727272727273</v>
       </c>
       <c r="L66" s="7" t="n">
-        <v>0.51</v>
+        <v>9.15</v>
       </c>
       <c r="M66" s="7" t="n">
         <v>108.99</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.004679328378750344</v>
+        <v>0.08395265620699148</v>
       </c>
       <c r="O66" s="5" t="n">
-        <v>213.70588235294116</v>
+        <v>11.911475409836065</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>1.0</v>
@@ -5153,7 +5113,7 @@
         <v>1.0</v>
       </c>
       <c r="R66" s="6" t="n">
-        <v>0.5</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="S66" s="4" t="n">
         <v>1.0</v>
@@ -5165,6 +5125,3162 @@
         <v>108.99</v>
       </c>
       <c r="V66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Doll boy</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ611-TW-22</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>B0793RG3PM</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>20711.0</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>0.01071894162522331</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>0.18184684684684688</v>
+      </c>
+      <c r="L67" s="7" t="n">
+        <v>40.370000000000005</v>
+      </c>
+      <c r="M67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Doll boy</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ150-B7-18</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>B0795QK1TP</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>11841.0</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>0.013005658305886326</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>0.1503246753246753</v>
+      </c>
+      <c r="L68" s="7" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>0.2572508056450717</v>
+      </c>
+      <c r="O68" s="5" t="n">
+        <v>3.887257019438445</v>
+      </c>
+      <c r="P68" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R68" s="6" t="n">
+        <v>0.006493506493506493</v>
+      </c>
+      <c r="S68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="7" t="n">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Doll boy</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ516-B0-22</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>B07BFVWCV4</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>10369.0</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>0.011862281801523773</v>
+      </c>
+      <c r="K69" s="7" t="n">
+        <v>0.19065040650406506</v>
+      </c>
+      <c r="L69" s="7" t="n">
+        <v>23.450000000000003</v>
+      </c>
+      <c r="M69" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="N69" s="6" t="n">
+        <v>0.2605845093899323</v>
+      </c>
+      <c r="O69" s="5" t="n">
+        <v>3.837526652452025</v>
+      </c>
+      <c r="P69" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R69" s="6" t="n">
+        <v>0.008130081300813009</v>
+      </c>
+      <c r="S69" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="V69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl test</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ001-PI-22</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>B079JQCWQ6</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70"/>
+      <c r="S70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl test</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ150-PI-20</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>B07CM664M7</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71"/>
+      <c r="S71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>sleeping doll girl</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ232-W0-10</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>B07DL5ZGP8</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>5953.0</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>0.011086846967915337</v>
+      </c>
+      <c r="K72" s="7" t="n">
+        <v>0.17106060606060605</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>0.12545838426491832</v>
+      </c>
+      <c r="O72" s="5" t="n">
+        <v>7.970770593445527</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U72" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V72" s="7" t="n">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ010-P0-22</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>B078X59HSZ</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>20215.0</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>0.008112787534009399</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>0.3311585365853658</v>
+      </c>
+      <c r="L73" s="7" t="n">
+        <v>54.309999999999995</v>
+      </c>
+      <c r="M73" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="N73" s="6" t="n">
+        <v>0.6035115012779197</v>
+      </c>
+      <c r="O73" s="5" t="n">
+        <v>1.6569692505984166</v>
+      </c>
+      <c r="P73" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R73" s="6" t="n">
+        <v>0.006097560975609756</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U73" s="7" t="n">
+        <v>89.99</v>
+      </c>
+      <c r="V73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>clothes</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>DOLLDRESS-003-R2-M</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>B077Z474QH</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>1530.0</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>0.006535947712418301</v>
+      </c>
+      <c r="K74" s="7" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="L74" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M74" s="7" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="N74" s="6" t="n">
+        <v>0.1216320246343341</v>
+      </c>
+      <c r="O74" s="5" t="n">
+        <v>8.221518987341772</v>
+      </c>
+      <c r="P74" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S74" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U74" s="7" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="V74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>Doll 2 auto</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ620-PI-22</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>B079JQDDN7</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>100783.0</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>0.005754938828969171</v>
+      </c>
+      <c r="K75" s="7" t="n">
+        <v>0.135051724137931</v>
+      </c>
+      <c r="L75" s="7" t="n">
+        <v>78.32999999999998</v>
+      </c>
+      <c r="M75" s="7" t="n">
+        <v>107.97999999999999</v>
+      </c>
+      <c r="N75" s="6" t="n">
+        <v>0.7254121133543248</v>
+      </c>
+      <c r="O75" s="5" t="n">
+        <v>1.3785267458189712</v>
+      </c>
+      <c r="P75" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R75" s="6" t="n">
+        <v>0.003448275862068966</v>
+      </c>
+      <c r="S75" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T75" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U75" s="7" t="n">
+        <v>85.99</v>
+      </c>
+      <c r="V75" s="7" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>Toddler</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ170-SH-22</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>B07F72X354</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>7618.0</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>0.0024940929377789446</v>
+      </c>
+      <c r="K76" s="7" t="n">
+        <v>0.20473684210526313</v>
+      </c>
+      <c r="L76" s="7" t="n">
+        <v>3.8899999999999997</v>
+      </c>
+      <c r="M76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>Toddler</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ039-R0-22</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>B07F73THXK</t>
+        </is>
+      </c>
+      <c r="H77" s="4" t="n">
+        <v>10232.0</v>
+      </c>
+      <c r="I77" s="4" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="J77" s="6" t="n">
+        <v>0.00517982799061767</v>
+      </c>
+      <c r="K77" s="7" t="n">
+        <v>0.1792452830188679</v>
+      </c>
+      <c r="L77" s="7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M77" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P77" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R77" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S77" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T77" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U77" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V77" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>Toddler</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ504-PI-22</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>B07F71667Y</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="n">
+        <v>1585.0</v>
+      </c>
+      <c r="I78" s="4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>0.017034700315457414</v>
+      </c>
+      <c r="K78" s="7" t="n">
+        <v>0.20296296296296298</v>
+      </c>
+      <c r="L78" s="7" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="M78" s="7" t="n">
+        <v>118.99</v>
+      </c>
+      <c r="N78" s="6" t="n">
+        <v>0.046054290276493826</v>
+      </c>
+      <c r="O78" s="5" t="n">
+        <v>21.713503649635033</v>
+      </c>
+      <c r="P78" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q78" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R78" s="6" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="S78" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" s="7" t="n">
+        <v>118.99</v>
+      </c>
+      <c r="V78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ187-BR-22</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>B07FYF8J1H</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ039-R0-22</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>B07F73THXK</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>6038.0</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>0.0031467373302418015</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>0.28842105263157897</v>
+      </c>
+      <c r="L80" s="7" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ504-PI-22</t>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <t>B07F71667Y</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>1451.0</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>0.007580978635423846</v>
+      </c>
+      <c r="K81" s="7" t="n">
+        <v>0.3290909090909091</v>
+      </c>
+      <c r="L81" s="7" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ170-SH-22</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>B07F72X354</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>4692.0</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J82" s="6" t="n">
+        <v>0.0014919011082693947</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>0.26285714285714284</v>
+      </c>
+      <c r="L82" s="7" t="n">
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>Doll 16</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ721-PI-16</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <t>B07FNJYWTX</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J83" s="6" t="n">
+        <v>0.006087662337662339</v>
+      </c>
+      <c r="K83" s="7" t="n">
+        <v>0.23933333333333331</v>
+      </c>
+      <c r="L83" s="7" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Doll 16</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ719-B7-16</t>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <t>B07FNKS38N</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>3604.0</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <v>0.007214206437291898</v>
+      </c>
+      <c r="K84" s="7" t="n">
+        <v>0.2842307692307692</v>
+      </c>
+      <c r="L84" s="7" t="n">
+        <v>7.389999999999999</v>
+      </c>
+      <c r="M84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R84" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>Doll 16</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ165-B7-16</t>
+        </is>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
+          <t>B07BLVB7FH</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="n">
+        <v>19751.0</v>
+      </c>
+      <c r="I85" s="4" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="J85" s="6" t="n">
+        <v>0.009265353652979596</v>
+      </c>
+      <c r="K85" s="7" t="n">
+        <v>0.2731147540983606</v>
+      </c>
+      <c r="L85" s="7" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="M85" s="7" t="n">
+        <v>79.99</v>
+      </c>
+      <c r="N85" s="6" t="n">
+        <v>0.6248281035129392</v>
+      </c>
+      <c r="O85" s="5" t="n">
+        <v>1.600440176070428</v>
+      </c>
+      <c r="P85" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q85" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R85" s="6" t="n">
+        <v>0.005464480874316941</v>
+      </c>
+      <c r="S85" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U85" s="7" t="n">
+        <v>79.99</v>
+      </c>
+      <c r="V85" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>Doll 16</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ070-PI-16</t>
+        </is>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <t>B079NYR8GC</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R86"/>
+      <c r="S86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>Doll 16</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ018-P4-16</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="inlineStr">
+        <is>
+          <t>B078X5DJLB</t>
+        </is>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>21883.0</v>
+      </c>
+      <c r="I87" s="4" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="J87" s="6" t="n">
+        <v>0.0059863821231092625</v>
+      </c>
+      <c r="K87" s="7" t="n">
+        <v>0.27259541984732827</v>
+      </c>
+      <c r="L87" s="7" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="M87" s="7" t="n">
+        <v>186.98</v>
+      </c>
+      <c r="N87" s="6" t="n">
+        <v>0.19098299283345813</v>
+      </c>
+      <c r="O87" s="5" t="n">
+        <v>5.236068328199384</v>
+      </c>
+      <c r="P87" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q87" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R87" s="6" t="n">
+        <v>0.015267175572519083</v>
+      </c>
+      <c r="S87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T87" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U87" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V87" s="7" t="n">
+        <v>186.98</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>Doll 10</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ005-W0-11</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <t>B079JQGCBR</t>
+        </is>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>904.0</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J88" s="6" t="n">
+        <v>0.00663716814159292</v>
+      </c>
+      <c r="K88" s="7" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="L88" s="7" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="M88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R88" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>Doll girl</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>DOLL-0601-PI-22</t>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <t>B076J2TBNG</t>
+        </is>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>28859.0</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="J89" s="6" t="n">
+        <v>0.004851172944315465</v>
+      </c>
+      <c r="K89" s="7" t="n">
+        <v>0.2557142857142857</v>
+      </c>
+      <c r="L89" s="7" t="n">
+        <v>35.800000000000004</v>
+      </c>
+      <c r="M89" s="7" t="n">
+        <v>91.99</v>
+      </c>
+      <c r="N89" s="6" t="n">
+        <v>0.38917273616697473</v>
+      </c>
+      <c r="O89" s="5" t="n">
+        <v>2.569553072625698</v>
+      </c>
+      <c r="P89" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q89" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R89" s="6" t="n">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="S89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T89" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U89" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V89" s="7" t="n">
+        <v>91.99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ631-R2-22</t>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <t>B07BSHY6ZL</t>
+        </is>
+      </c>
+      <c r="H90" s="4" t="n">
+        <v>29798.0</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="J90" s="6" t="n">
+        <v>0.004027115913819719</v>
+      </c>
+      <c r="K90" s="7" t="n">
+        <v>0.32725000000000004</v>
+      </c>
+      <c r="L90" s="7" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="M90" s="7" t="n">
+        <v>279.96999999999997</v>
+      </c>
+      <c r="N90" s="6" t="n">
+        <v>0.14026502839589958</v>
+      </c>
+      <c r="O90" s="5" t="n">
+        <v>7.129360835243187</v>
+      </c>
+      <c r="P90" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q90" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R90" s="6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="S90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T90" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U90" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V90" s="7" t="n">
+        <v>279.96999999999997</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ507-PI-24</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <t>B07FD9B9Q1</t>
+        </is>
+      </c>
+      <c r="H91" s="4" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J91" s="6" t="n">
+        <v>0.00672182006204757</v>
+      </c>
+      <c r="K91" s="7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L91" s="7" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R91" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ150-K0-22</t>
+        </is>
+      </c>
+      <c r="G92" s="1" t="inlineStr">
+        <is>
+          <t>B07CN274MC</t>
+        </is>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>11966.0</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="J92" s="6" t="n">
+        <v>0.003175664382416848</v>
+      </c>
+      <c r="K92" s="7" t="n">
+        <v>0.2905263157894737</v>
+      </c>
+      <c r="L92" s="7" t="n">
+        <v>11.040000000000001</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>99.99</v>
+      </c>
+      <c r="N92" s="6" t="n">
+        <v>0.11041104110411043</v>
+      </c>
+      <c r="O92" s="5" t="n">
+        <v>9.057065217391303</v>
+      </c>
+      <c r="P92" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q92" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R92" s="6" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="S92" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U92" s="7" t="n">
+        <v>99.99</v>
+      </c>
+      <c r="V92" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ232-W0-10</t>
+        </is>
+      </c>
+      <c r="G93" s="1" t="inlineStr">
+        <is>
+          <t>B07DL5ZGP8</t>
+        </is>
+      </c>
+      <c r="H93" s="4" t="n">
+        <v>34254.0</v>
+      </c>
+      <c r="I93" s="4" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="J93" s="6" t="n">
+        <v>0.00434985695101302</v>
+      </c>
+      <c r="K93" s="7" t="n">
+        <v>0.3044295302013423</v>
+      </c>
+      <c r="L93" s="7" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="M93" s="7" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="N93" s="6" t="n">
+        <v>1.374962109730221</v>
+      </c>
+      <c r="O93" s="5" t="n">
+        <v>0.7272927689594357</v>
+      </c>
+      <c r="P93" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q93" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R93" s="6" t="n">
+        <v>0.006711409395973155</v>
+      </c>
+      <c r="S93" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T93" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U93" s="7" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="V93" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ159-R2-22</t>
+        </is>
+      </c>
+      <c r="G94" s="1" t="inlineStr">
+        <is>
+          <t>B07BNCFZXN</t>
+        </is>
+      </c>
+      <c r="H94" s="4" t="n">
+        <v>23610.0</v>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="J94" s="6" t="n">
+        <v>0.00457433290978399</v>
+      </c>
+      <c r="K94" s="7" t="n">
+        <v>0.37518518518518523</v>
+      </c>
+      <c r="L94" s="7" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="M94" s="7" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="N94" s="6" t="n">
+        <v>0.4068273092369478</v>
+      </c>
+      <c r="O94" s="5" t="n">
+        <v>2.458045409674235</v>
+      </c>
+      <c r="P94" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q94" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R94" s="6" t="n">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="S94" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T94" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U94" s="7" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="V94" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ158-W0-22</t>
+        </is>
+      </c>
+      <c r="G95" s="1" t="inlineStr">
+        <is>
+          <t>B0795M2NML</t>
+        </is>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>7072.0</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="J95" s="6" t="n">
+        <v>0.006080316742081449</v>
+      </c>
+      <c r="K95" s="7" t="n">
+        <v>0.3976744186046512</v>
+      </c>
+      <c r="L95" s="7" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M95" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P95" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R95" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S95" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T95" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U95" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V95" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ153-B7-22</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="inlineStr">
+        <is>
+          <t>B07BDDC5WH</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K96"/>
+      <c r="L96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R96"/>
+      <c r="S96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ171-LGR-22</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>B0795117ZD</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J97" s="6" t="n">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="K97" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L97" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M97" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P97" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R97" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T97" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U97" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V97" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ985-B7-20</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>B07CM67KDW</t>
+        </is>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K98"/>
+      <c r="L98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R98"/>
+      <c r="S98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ081-B7-10</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>B07BLRH5BR</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ639-LGR-22</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>B07BFVHDDP</t>
+        </is>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K100"/>
+      <c r="L100" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R100"/>
+      <c r="S100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U100" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V100" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ720-W0-16</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>B07FNL69J7</t>
+        </is>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J101" s="6" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K101" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L101" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M101" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P101" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R101" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T101" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U101" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V101" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>DOLL-1630-R0-22</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>B076P99TGC</t>
+        </is>
+      </c>
+      <c r="H102" s="4" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R102"/>
+      <c r="S102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ004-B7-11</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>B078Y5BTZC</t>
+        </is>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I103" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J103" s="6" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K103" s="7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L103" s="7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R103" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>Girl</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ638-PI-20</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>B07929YDZM</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>14997.0</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="J104" s="6" t="n">
+        <v>0.0054010802160432084</v>
+      </c>
+      <c r="K104" s="7" t="n">
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="L104" s="7" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="M104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R104" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>full silicone auto</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ638-LGR-20</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>B07B7G22RT</t>
+        </is>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R105"/>
+      <c r="S105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ192-G0-22</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
+        <is>
+          <t>B07G41G2GB</t>
+        </is>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J106" s="6" t="n">
+        <v>0.013896037056098815</v>
+      </c>
+      <c r="K106" s="7" t="n">
+        <v>0.2522222222222222</v>
+      </c>
+      <c r="L106" s="7" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="M106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R106" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ190-B7-22</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
+        <is>
+          <t>B07G2BPXQ7</t>
+        </is>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>1539.0</v>
+      </c>
+      <c r="I107" s="4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J107" s="6" t="n">
+        <v>0.011046133853151396</v>
+      </c>
+      <c r="K107" s="7" t="n">
+        <v>0.26823529411764707</v>
+      </c>
+      <c r="L107" s="7" t="n">
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="M107" s="7" t="n">
+        <v>99.99</v>
+      </c>
+      <c r="N107" s="6" t="n">
+        <v>0.04560456045604561</v>
+      </c>
+      <c r="O107" s="5" t="n">
+        <v>21.927631578947366</v>
+      </c>
+      <c r="P107" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q107" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R107" s="6" t="n">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="S107" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T107" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U107" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V107" s="7" t="n">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>43333.0</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>Doll automatic</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>Doll 22</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>DO-YULQ191-E0-22</t>
+        </is>
+      </c>
+      <c r="G108" s="1" t="inlineStr">
+        <is>
+          <t>B07G1Z8D76</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J108" s="6" t="n">
+        <v>0.007056451612903225</v>
+      </c>
+      <c r="K108" s="7" t="n">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="L108" s="7" t="n">
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="M108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R108" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V108" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>
